--- a/biology/Botanique/Classification_des_Arecaceae/Classification_des_Arecaceae.xlsx
+++ b/biology/Botanique/Classification_des_Arecaceae/Classification_des_Arecaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article présente la classification des Arecaceae [1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article présente la classification des Arecaceae .
 </t>
         </is>
       </c>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Le nom de famille des Arecaceae (rassemblant le groupe des Palmiers) a été valablement publié en 1820 par Friedrich von Berchtold et Jan Svatopluk Presl dans O Prirozenosti Rostlin, p. 266. La dénomination de la famille des Arecaceae a été obtenu par Bercht. et J.Presl avec pour genre type Areca L. [4]. Le nom de famille synonyme Palmae, sans avoir toutefois de genre type, ni de suffixe  aux règles botanique, a été lui publié pour la première fois en 1789 par Antoine Laurent de Jussieu dans Genera Plantarum, p. 37[5],[6].
-Systématique externe
-Les Arecaceae forment un groupe monophylétique[7]. Ils sont le groupe frère des Dasypogonaceae. Ces relations n'ont pas été claires pendant longtemps .  Ce n'est qu'en 2016, que le groupe d’étude des Angiospermes, avec leur rapport APG IV, que les Dasypogonaceae ont été placées dans l'ordre des Arecales avec les Arecaceae [8].
-Systématique interne
-La systématique des Arecaceae a été considérablement modifiée par les études de génétique moléculaire. En 2005, une classification de la famille des palmiers synthétisant différentes publications et sous-ouvrages a été publiée[9]. Cette classification a été adoptée dans Genera Palmarum en 2008 avec des mises à jour[3].
-Les relations entre les cinq sous-familles ont maintenant été assez bien étudiées[10],[7]. Ils peuvent être représentés par le cladogramme suivant :
-2016 : Baker et Dransfield ont publié une nouvelle mise à jour de la classification sur laquelle la classification suivante est basée [1]:
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de famille des Arecaceae (rassemblant le groupe des Palmiers) a été valablement publié en 1820 par Friedrich von Berchtold et Jan Svatopluk Presl dans O Prirozenosti Rostlin, p. 266. La dénomination de la famille des Arecaceae a été obtenu par Bercht. et J.Presl avec pour genre type Areca L. . Le nom de famille synonyme Palmae, sans avoir toutefois de genre type, ni de suffixe  aux règles botanique, a été lui publié pour la première fois en 1789 par Antoine Laurent de Jussieu dans Genera Plantarum, p. 37,.
 </t>
         </is>
       </c>
@@ -546,40 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sous-famille des Calamoideae</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tribu des Eugeissoneae
-Eugeissona
-Tribu des Lepidocaryeae
-Sous-tribu des Ancistrophyllinae
-Oncocalamus
-Eremospatha
-Laccosperma
-Sous-tribu des Raphiinae
-Raphia
-Sous-tribu des Mauritiinae
-Lepidocaryum
-Mauritia
-Mauritiella
-Tribu des Calameae
-Sous-tribu des Korthalsiinae
-Korthalsia
-Sous-tribu des Salaccinae
-Eleiodoxa
-Salacca
-Sous-tribu des Metroxylinae
-Metroxylon
-Sous-tribu des Pigafettinae
-Pigafetta
-Sous-tribu des Plectocomiinae
-Plectocomia
-Myrialepis
-Plectocomiopsis
-Sous-tribu des Calaminae
-Calamus[a]</t>
+          <t>Systématique externe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Arecaceae forment un groupe monophylétique. Ils sont le groupe frère des Dasypogonaceae. Ces relations n'ont pas été claires pendant longtemps .  Ce n'est qu'en 2016, que le groupe d’étude des Angiospermes, avec leur rapport APG IV, que les Dasypogonaceae ont été placées dans l'ordre des Arecales avec les Arecaceae .
+</t>
         </is>
       </c>
     </row>
@@ -604,12 +594,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sous-famille des Nypoideae</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nypa</t>
+          <t>Systématique interne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La systématique des Arecaceae a été considérablement modifiée par les études de génétique moléculaire. En 2005, une classification de la famille des palmiers synthétisant différentes publications et sous-ouvrages a été publiée. Cette classification a été adoptée dans Genera Palmarum en 2008 avec des mises à jour.
+Les relations entre les cinq sous-familles ont maintenant été assez bien étudiées,. Ils peuvent être représentés par le cladogramme suivant :
+2016 : Baker et Dransfield ont publié une nouvelle mise à jour de la classification sur laquelle la classification suivante est basée :
+</t>
         </is>
       </c>
     </row>
@@ -634,15 +633,489 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tribu des Eugeissoneae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eugeissona</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tribu des Lepidocaryeae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Ancistrophyllinae</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Oncocalamus
+Eremospatha
+Laccosperma</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tribu des Lepidocaryeae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Raphiinae</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Raphia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tribu des Lepidocaryeae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Mauritiinae</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lepidocaryum
+Mauritia
+Mauritiella</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tribu des Calameae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Korthalsiinae</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Korthalsia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tribu des Calameae</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Salaccinae</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Eleiodoxa
+Salacca</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tribu des Calameae</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Metroxylinae</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Metroxylon</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tribu des Calameae</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Pigafettinae</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pigafetta</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tribu des Calameae</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Plectocomiinae</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Plectocomia
+Myrialepis
+Plectocomiopsis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sous-famille des Calamoideae</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tribu des Calameae</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Calaminae</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Calamus[a]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sous-famille des Nypoideae</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nypa</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Sous-famille des Coryphoideae</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tribu des Sabaleae
-Sabal
-Tribu des Cryosophileae
-Schippia
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tribu des Sabaleae</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sabal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tribu des Cryosophileae</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Schippia
 Trithrinax
 Itaya
 Sabinaria[b]
@@ -652,148 +1125,791 @@
 Leucothrinax
 Hemithrinax
 Zombia
-Coccothrinax
-Tribu des Phoeniceae
-Phoenix
-Tribu des Trachycarpeae
-Sous-tribu des Rhapidinae
-Chamaerops
+Coccothrinax</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tribu des Phoeniceae</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tribu des Trachycarpeae</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Rhapidinae</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Chamaerops
 Guihaia
 Trachycarpus
 Rhapidophyllum
 Maxburretia
-Rhapis
-Sous-tribu des Livistoninae
-Livistona[c]
+Rhapis</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tribu des Trachycarpeae</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Livistoninae</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Livistona[c]
 Licuala[d]
 Johannesteijsmannia
 Pholidocarpus
 Saribus[e]
-Lanonia[f]
-Membres non placés dans la tribu des Trachycarpeae
-Acoelorrhaphe
+Lanonia[f]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tribu des Trachycarpeae</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Membres non placés dans la tribu des Trachycarpeae</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Acoelorrhaphe
 Brahea
 Colpothrinax
 Copernicia
 Pritchardia
 Serenoa
-Washingtonia
-Tribu des Chuniophoeniceae
-Chuniophoenix
+Washingtonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tribu des Chuniophoeniceae</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Chuniophoenix
 Kerriodoxa
 Nannorrhops
-Tahina
-Tribu des Caryoteae
-Caryota
+Tahina</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tribu des Caryoteae</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Caryota
 Arenga
-(Wallichia) [g]
-Tribu des Corypheae
-Corypha
-Tribu des Borasseae
-Sous-tribu des Hyphaeninae
-Bismarckia
+(Wallichia) [g]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tribu des Corypheae</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Corypha</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tribu des Borasseae</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Hyphaeninae</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Bismarckia
 Satranala
 Hyphaene
-Medemia
-Sous-tribu des Lataniinae
-Latania
+Medemia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sous-famille des Coryphoideae</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tribu des Borasseae</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Lataniinae</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Latania
 Lodoicea
 Borassodendron
 Borassus</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classification_des_Arecaceae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Sous-famille des Ceroxyloideae</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tribu des Cyclospatheae
-Pseudophoenix
-Tribu des Ceroxyleae
-Ceroxylon
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tribu des Cyclospatheae</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Pseudophoenix</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sous-famille des Ceroxyloideae</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tribu des Ceroxyleae</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ceroxylon
 Juania
 Oraniopsis
-Ravenea
-Tribu des Phytelepheae
-Ammandra
+Ravenea</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sous-famille des Ceroxyloideae</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tribu des Phytelepheae</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ammandra
 Aphandra
 Phytelephas</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classification_des_Arecaceae</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Sous-famille des Arecoideae</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Tribu des Iriarteeae
-Iriartella
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tribu des Iriarteeae</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Iriartella
 Dictyocaryum
 Iriartea
 Socratea
-Wettinia
-Tribu des Chamaedoreeae
-Hyophorbe
+Wettinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tribu des Chamaedoreeae</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Hyophorbe
 Wendlandiella
 Synechanthus
 Chamaedorea
-Gaussia
-Tribu des Podococceae
-Podococcus
-Tribu des Oranieae
-Orania
-Tribu des Sclerospermeae
-Sclerosperma
-Tribu des Roystoneae
-Roystonea
-Tribu des Reinhardtieae
-Reinhardtia
-Tribu des Cocoseae
-Sous-tribu des Attaleinae
-Beccariophoenix
+Gaussia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tribu des Podococceae</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Podococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tribu des Oranieae</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Orania</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tribu des Sclerospermeae</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sclerosperma</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tribu des Roystoneae</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Roystonea</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tribu des Reinhardtieae</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Reinhardtia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tribu des Cocoseae</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Attaleinae</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Beccariophoenix
 Jubaeopsis
 Voanioala
 Allagoptera
@@ -802,82 +1918,669 @@
 Cocos
 Jubaea
 Syagrus[h]
-Parajubaea
-Sous-tribu des Bactridinae
-Acrocomia
+Parajubaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tribu des Cocoseae</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Bactridinae</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Acrocomia
 Astrocaryum
 Aiphanes
 Bactris
-Desmoncus
-Sous-tribu des Elaeidinae
-Barcella
-Elaeis
-Tribu des Manicarieae
-Manicaria
-Tribu des Euterpeae
-Hyospathe
+Desmoncus</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tribu des Cocoseae</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Elaeidinae</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Barcella
+Elaeis</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tribu des Manicarieae</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Manicaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tribu des Euterpeae</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Hyospathe
 Euterpe
 Prestoea
 Neonicholsonia
-Oenocarpus
-Tribu des Geonomateae
-Welfia
+Oenocarpus</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tribu des Geonomateae</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Welfia
 Pholidostachys
 Calyptrogyne
 Calyptronoma
 Asterogyne
-Geonoma
-Tribu des Leopoldinieae
-Leopoldinia
-Tribu des Pelagodoxeae
-Pelagodoxa
-Sommieria
-Tribu des Areceae
-Sous-tribu des Archontophoenicinae
-Actinorhytis
+Geonoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tribu des Leopoldinieae</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Leopoldinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tribu des Pelagodoxeae</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Pelagodoxa
+Sommieria</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Archontophoenicinae</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Actinorhytis
 Archontophoenix
 Actinokentia
 Chambeyronia
-Kentiopsis
-Sous-tribu des Arecinae 
-Areca
+Kentiopsis</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-tribu des Arecinae </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Areca
 Nenga
-Pinanga
-Sous-tribu des Basseliniinae
-Basselinia
+Pinanga</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Basseliniinae</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Basselinia
 Burretiokentia
 Cyphophoenix
 Cyphosperma
 Lepidorrhachis
-Physokentia
-Sous-tribu des Carpoxylinae
-Carpoxylon
+Physokentia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Carpoxylinae</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Carpoxylon
 Satakentia
-Neoveitchia
-Sous-tribu des Clinospermatinae
-Cyphokentia
-Clinosperma
-Sous-tribu des Dypsidinae
-[11]
+Neoveitchia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Clinospermatinae</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Cyphokentia
+Clinosperma</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Dypsidinae</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dypsis
 Chrysalidocarpus[i]
 Vonitra[i]
 Lemurophoenix
 Marojejya
-Masoala
-Sous-tribu des Laccospadicinae
-[j]
+Masoala</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Laccospadicinae</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[j]
 Calyptrocalyx
 Linospadix
 Howea
-Laccospadix
-Sous-tribu des Oncospermatinae
-Oncosperma
+Laccospadix</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Oncospermatinae</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Oncosperma
 Deckenia
 Acanthophoenix
-Tectiphiala
-Sous-tribu des Ptychospermatinae
-Ptychosperma
+Tectiphiala</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Ptychospermatinae</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Ptychosperma
 Ponapea[k]
 Adonidia
 Balaka[l]
@@ -890,17 +2593,131 @@
 Ptychococcus
 Jailoloa[o]
 Manjekia[o]
-Wallaceodoxa[o]
-Sous-tribu des Rhopalostylidinae
-Rhopalostylis
-Hedyscepe
-Sous-tribu des Verschaffeltiinae
-Nephrosperma
+Wallaceodoxa[o]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Rhopalostylidinae</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Rhopalostylis
+Hedyscepe</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Verschaffeltiinae</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Nephrosperma
 Phoenicophorium
 Roscheria
-Verschaffeltia
-Membres non placés dans la tribu des Areceae
-Bentinckia
+Verschaffeltia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_Arecaceae</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Membres non placés dans la tribu des Areceae</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Bentinckia
 Clinostigma
 Cyrtostachys
 Dictyosperma
